--- a/resources/experiment 1/predictions/single/LinearRegression/incidence/Ceguera (INC).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/incidence/Ceguera (INC).xlsx
@@ -463,10 +463,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.600171821110636</v>
+        <v>-3.600171821110643</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.416063872790074</v>
+        <v>-2.416063872790076</v>
       </c>
       <c r="C3" t="n">
         <v>-4.51148796228351</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.487987334213861</v>
+        <v>-1.487987334213865</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.203806620831832</v>
+        <v>-1.203806620831834</v>
       </c>
       <c r="C4" t="n">
         <v>-1.44905497463418</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.223962402960967</v>
+        <v>-2.223962402960976</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.616498714034202</v>
+        <v>-1.616498714034204</v>
       </c>
       <c r="C5" t="n">
         <v>-2.495337141486065</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.647310034067226</v>
+        <v>2.647310034067222</v>
       </c>
       <c r="B6" t="n">
-        <v>1.160390877789778</v>
+        <v>1.160390877789777</v>
       </c>
       <c r="C6" t="n">
         <v>4.619451220502933</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13.03636285040902</v>
+        <v>13.03636285040903</v>
       </c>
       <c r="B8" t="n">
-        <v>6.981746696896421</v>
+        <v>6.981746696896423</v>
       </c>
       <c r="C8" t="n">
         <v>19.87300678875803</v>
@@ -529,21 +529,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.931737827765597</v>
+        <v>1.931737827765593</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7290033040982178</v>
+        <v>0.7290033040982169</v>
       </c>
       <c r="C9" t="n">
-        <v>3.59927379429862</v>
+        <v>3.599273794298621</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13.68326631364366</v>
+        <v>13.68326631364367</v>
       </c>
       <c r="B10" t="n">
-        <v>7.334121784803919</v>
+        <v>7.334121784803921</v>
       </c>
       <c r="C10" t="n">
         <v>20.86292917544836</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8.819058511396785</v>
+        <v>8.819058511396786</v>
       </c>
       <c r="B11" t="n">
         <v>4.607532667782753</v>
@@ -562,21 +562,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.067035196046684</v>
+        <v>6.06703519604668</v>
       </c>
       <c r="B12" t="n">
         <v>3.093200802719828</v>
       </c>
       <c r="C12" t="n">
-        <v>9.667779989435733</v>
+        <v>9.667779989435735</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13.66286345119818</v>
+        <v>13.66286345119819</v>
       </c>
       <c r="B13" t="n">
-        <v>7.352817265293109</v>
+        <v>7.35281726529311</v>
       </c>
       <c r="C13" t="n">
         <v>20.83682443480079</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>10.91750924968016</v>
+        <v>10.91750924968017</v>
       </c>
       <c r="B14" t="n">
-        <v>5.803987422584182</v>
+        <v>5.803987422584183</v>
       </c>
       <c r="C14" t="n">
         <v>16.79052006836392</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.847752984811299</v>
+        <v>-0.8477529848113079</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.8169335552783314</v>
+        <v>-0.8169335552783332</v>
       </c>
       <c r="C15" t="n">
         <v>-0.4791863206886191</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.619842536840432</v>
+        <v>2.619842536840427</v>
       </c>
       <c r="B16" t="n">
-        <v>1.128785883476153</v>
+        <v>1.128785883476152</v>
       </c>
       <c r="C16" t="n">
         <v>4.607349204697343</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.121970190500273</v>
+        <v>6.12197019050027</v>
       </c>
       <c r="B17" t="n">
-        <v>3.156410791347078</v>
+        <v>3.156410791347077</v>
       </c>
       <c r="C17" t="n">
         <v>9.691984021046913</v>
@@ -628,13 +628,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.460519836987065</v>
+        <v>-1.46051983698707</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.172201626518208</v>
+        <v>-1.172201626518209</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.436952958828591</v>
+        <v>-1.43695295882859</v>
       </c>
     </row>
     <row r="19">
@@ -645,15 +645,15 @@
         <v>5.422900323695437</v>
       </c>
       <c r="C19" t="n">
-        <v>15.75633991731762</v>
+        <v>15.75633991731763</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.023519452216895</v>
+        <v>4.02351945221689</v>
       </c>
       <c r="B20" t="n">
-        <v>1.959956036545649</v>
+        <v>1.959956036545648</v>
       </c>
       <c r="C20" t="n">
         <v>6.635602041300379</v>
@@ -661,21 +661,21 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.236964004858682</v>
+        <v>1.236964004858676</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3637187023662847</v>
+        <v>0.3637187023662833</v>
       </c>
       <c r="C21" t="n">
-        <v>2.571144651155119</v>
+        <v>2.571144651155121</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14.3576372741051</v>
+        <v>14.35763727410511</v>
       </c>
       <c r="B22" t="n">
-        <v>7.718101867025043</v>
+        <v>7.718101867025045</v>
       </c>
       <c r="C22" t="n">
         <v>21.86495357794429</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1047132812828746</v>
+        <v>-0.1047132812828835</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.3539409872731469</v>
+        <v>-0.3539409872731487</v>
       </c>
       <c r="C23" t="n">
         <v>0.5530931213212824</v>
@@ -694,32 +694,32 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2.606108788227034</v>
+        <v>2.606108788227029</v>
       </c>
       <c r="B24" t="n">
-        <v>1.112983386319341</v>
+        <v>1.11298338631934</v>
       </c>
       <c r="C24" t="n">
-        <v>4.601298196794548</v>
+        <v>4.601298196794549</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.257366867304159</v>
+        <v>1.257366867304157</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3450232218770948</v>
+        <v>0.3450232218770939</v>
       </c>
       <c r="C25" t="n">
-        <v>2.597249391802691</v>
+        <v>2.597249391802693</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.291898999312272</v>
+        <v>1.291898999312266</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4269286909935341</v>
+        <v>0.4269286909935328</v>
       </c>
       <c r="C26" t="n">
         <v>2.5953486827663</v>
@@ -749,21 +749,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.5833914277919598</v>
+        <v>0.5833914277919501</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04584159210478855</v>
+        <v>0.04584159210478678</v>
       </c>
       <c r="C29" t="n">
-        <v>1.561168531720007</v>
+        <v>1.561168531720005</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.420131732812042</v>
+        <v>5.420131732812039</v>
       </c>
       <c r="B30" t="n">
-        <v>2.74082571481233</v>
+        <v>2.740825714812329</v>
       </c>
       <c r="C30" t="n">
         <v>8.677857602745394</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10.27060578644552</v>
+        <v>10.27060578644553</v>
       </c>
       <c r="B31" t="n">
         <v>5.451612334676684</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11.58481557536028</v>
+        <v>11.58481557536029</v>
       </c>
       <c r="B32" t="n">
-        <v>6.13766703000249</v>
+        <v>6.137667030002492</v>
       </c>
       <c r="C32" t="n">
         <v>17.80654719570183</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10.90377550106676</v>
+        <v>10.90377550106677</v>
       </c>
       <c r="B33" t="n">
-        <v>5.78818492542737</v>
+        <v>5.788184925427371</v>
       </c>
       <c r="C33" t="n">
         <v>16.78446906046112</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8.853590643404896</v>
+        <v>8.853590643404894</v>
       </c>
       <c r="B34" t="n">
         <v>4.689438136899192</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.307947245915266</v>
+        <v>3.307947245915261</v>
       </c>
       <c r="B35" t="n">
-        <v>1.528568462854089</v>
+        <v>1.528568462854088</v>
       </c>
       <c r="C35" t="n">
         <v>5.615424615096066</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5.385599600803929</v>
+        <v>5.38559960080393</v>
       </c>
       <c r="B36" t="n">
         <v>2.65892024569589</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.952536211160312</v>
+        <v>1.952536211160305</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7951062760578447</v>
+        <v>0.7951062760578433</v>
       </c>
       <c r="C37" t="n">
         <v>3.591322077359433</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>12.33491991367002</v>
+        <v>12.33491991367003</v>
       </c>
       <c r="B38" t="n">
-        <v>6.65096007281049</v>
+        <v>6.650960072810491</v>
       </c>
       <c r="C38" t="n">
         <v>18.82482391286975</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6.768873653734916</v>
+        <v>6.768873653734912</v>
       </c>
       <c r="B39" t="n">
         <v>3.508785879254576</v>
@@ -870,18 +870,18 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.1117779160641916</v>
+        <v>-0.1117779160641978</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.4042414620759613</v>
+        <v>-0.4042414620759631</v>
       </c>
       <c r="C40" t="n">
-        <v>0.567095846163264</v>
+        <v>0.5670958461632658</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.738696137569287</v>
+        <v>4.738696137569288</v>
       </c>
       <c r="B41" t="n">
         <v>2.306545157788392</v>
@@ -892,18 +892,18 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9.534630717698413</v>
+        <v>9.534630717698414</v>
       </c>
       <c r="B42" t="n">
         <v>5.038920241474313</v>
       </c>
       <c r="C42" t="n">
-        <v>14.75431551482169</v>
+        <v>14.7543155148217</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5.433865481425439</v>
+        <v>5.433865481425436</v>
       </c>
       <c r="B43" t="n">
         <v>2.756628211969142</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6.768478132785678</v>
+        <v>6.768478132785681</v>
       </c>
       <c r="B44" t="n">
-        <v>3.423987426805759</v>
+        <v>3.42398742680576</v>
       </c>
       <c r="C44" t="n">
         <v>10.71596286532401</v>
@@ -928,7 +928,7 @@
         <v>10.95204138168828</v>
       </c>
       <c r="B45" t="n">
-        <v>5.885892891700621</v>
+        <v>5.885892891700622</v>
       </c>
       <c r="C45" t="n">
         <v>16.78861935932753</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9.582501077370686</v>
+        <v>9.58250107737069</v>
       </c>
       <c r="B46" t="n">
-        <v>5.051829755298748</v>
+        <v>5.051829755298749</v>
       </c>
       <c r="C46" t="n">
         <v>14.79252227127486</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>15.08694322902012</v>
+        <v>15.08694322902013</v>
       </c>
       <c r="B47" t="n">
         <v>8.165291937873416</v>
@@ -958,10 +958,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6.094502693273479</v>
+        <v>6.094502693273475</v>
       </c>
       <c r="B48" t="n">
-        <v>3.124805797033453</v>
+        <v>3.124805797033452</v>
       </c>
       <c r="C48" t="n">
         <v>9.679882005241323</v>
@@ -969,32 +969,32 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.8410838709792188</v>
+        <v>-0.8410838709792241</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.8514315329243338</v>
+        <v>-0.8514315329243356</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.4591325879438433</v>
+        <v>-0.4591325879438415</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.925068713933517</v>
+        <v>1.925068713933509</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7635012817442202</v>
+        <v>0.7635012817442188</v>
       </c>
       <c r="C50" t="n">
-        <v>3.579220061553843</v>
+        <v>3.579220061553844</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-3.572704323883841</v>
+        <v>-3.572704323883849</v>
       </c>
       <c r="B51" t="n">
-        <v>-2.384458878476449</v>
+        <v>-2.384458878476451</v>
       </c>
       <c r="C51" t="n">
         <v>-4.49938594647792</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8.839461373842262</v>
+        <v>8.839461373842267</v>
       </c>
       <c r="B52" t="n">
         <v>4.588837187293564</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.810074899575108</v>
+        <v>6.810074899575104</v>
       </c>
       <c r="B53" t="n">
         <v>3.556193370725013</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.8202854875845036</v>
+        <v>-0.8202854875845125</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.7853285609647074</v>
+        <v>-0.7853285609647092</v>
       </c>
       <c r="C54" t="n">
         <v>-0.4670843048830289</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.250697753472079</v>
+        <v>1.250697753472073</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3795211995230972</v>
+        <v>0.3795211995230958</v>
       </c>
       <c r="C55" t="n">
         <v>2.577195659057915</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10.20193704337853</v>
+        <v>10.20193704337854</v>
       </c>
       <c r="B56" t="n">
-        <v>5.372599848892622</v>
+        <v>5.372599848892623</v>
       </c>
       <c r="C56" t="n">
         <v>15.7703426421596</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11.59854932397368</v>
+        <v>11.59854932397369</v>
       </c>
       <c r="B57" t="n">
-        <v>6.153469527159302</v>
+        <v>6.153469527159304</v>
       </c>
       <c r="C57" t="n">
         <v>17.81259820360462</v>
@@ -1068,18 +1068,18 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.966269959773709</v>
+        <v>1.966269959773702</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8109087732146572</v>
+        <v>0.8109087732146558</v>
       </c>
       <c r="C58" t="n">
-        <v>3.597373085262228</v>
+        <v>3.597373085262229</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8.18588879677554</v>
+        <v>8.185888796775542</v>
       </c>
       <c r="B59" t="n">
         <v>4.270960077032067</v>
@@ -1090,13 +1090,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.1459145271230673</v>
+        <v>-0.1459145271230762</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.4013484787435839</v>
+        <v>-0.4013484787435857</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5349400976128997</v>
+        <v>0.534940097612898</v>
       </c>
     </row>
     <row r="61">
@@ -1112,10 +1112,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>8.832792260010182</v>
+        <v>8.832792260010184</v>
       </c>
       <c r="B62" t="n">
-        <v>4.623335164939565</v>
+        <v>4.623335164939566</v>
       </c>
       <c r="C62" t="n">
         <v>13.74018909652018</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>12.98182337690466</v>
+        <v>12.98182337690467</v>
       </c>
       <c r="B63" t="n">
-        <v>7.003335160717988</v>
+        <v>7.00333516071799</v>
       </c>
       <c r="C63" t="n">
         <v>19.81474629956008</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.13218077850967</v>
+        <v>-0.1321807785096789</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.3855459815867714</v>
+        <v>-0.3855459815867737</v>
       </c>
       <c r="C64" t="n">
         <v>0.540991105515694</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10.92417836351224</v>
+        <v>10.92417836351225</v>
       </c>
       <c r="B65" t="n">
-        <v>5.76948944493818</v>
+        <v>5.769489444938181</v>
       </c>
       <c r="C65" t="n">
         <v>16.8105738011087</v>
@@ -1178,10 +1178,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.5351255471704501</v>
+        <v>0.5351255471704439</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.05186637416846329</v>
+        <v>-0.05186637416846462</v>
       </c>
       <c r="C68" t="n">
         <v>1.557018232853602</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>15.04574198317993</v>
+        <v>15.04574198317994</v>
       </c>
       <c r="B69" t="n">
         <v>8.117884446402979</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-0.09804416745079436</v>
+        <v>-0.09804416745079969</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.3884389649191493</v>
+        <v>-0.3884389649191506</v>
       </c>
       <c r="C70" t="n">
         <v>0.57314685406606</v>
@@ -1211,21 +1211,21 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.640245399285909</v>
+        <v>2.640245399285908</v>
       </c>
       <c r="B71" t="n">
-        <v>1.110090402986963</v>
+        <v>1.110090402986962</v>
       </c>
       <c r="C71" t="n">
-        <v>4.633453945344915</v>
+        <v>4.633453945344916</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4.002721068822181</v>
+        <v>4.002721068822178</v>
       </c>
       <c r="B72" t="n">
-        <v>1.893853064586022</v>
+        <v>1.893853064586021</v>
       </c>
       <c r="C72" t="n">
         <v>6.643553758239565</v>
